--- a/auto_test/interfaceProject/a_quote/quote3_config/quote.xlsx
+++ b/auto_test/interfaceProject/a_quote/quote3_config/quote.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
   <si>
     <t>逻辑检查</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,10 +202,6 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/InterfaceProject/searchuser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -300,6 +296,22 @@
   </si>
   <si>
     <t>username:lyz4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/JavaPrj_6/control/user.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/JavaPrj_6/login.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,7 +898,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>15</v>
@@ -912,10 +924,10 @@
         <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>25</v>
@@ -930,7 +942,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="15"/>
     </row>
@@ -940,10 +952,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>25</v>
@@ -965,16 +977,16 @@
         <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>19</v>
@@ -983,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K7" s="15"/>
     </row>
@@ -1015,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1037,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>29</v>
@@ -1063,16 +1075,14 @@
       <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>27</v>
@@ -1081,7 +1091,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>24</v>
@@ -1090,16 +1100,13 @@
         <v>34</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -1131,16 +1138,18 @@
         <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>27</v>
@@ -1149,19 +1158,25 @@
         <v>23</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="7">
-        <v>200</v>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -1189,25 +1204,29 @@
       <c r="H5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>24</v>
@@ -1215,8 +1234,11 @@
       <c r="G6" s="7">
         <v>200</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>56</v>
+      <c r="I6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -1244,31 +1266,25 @@
       <c r="H7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>24</v>
@@ -1277,27 +1293,89 @@
         <v>200</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="7">
+        <v>200</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F9" s="10"/>
+      <c r="K10" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F11" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E8" r:id="rId2"/>
+    <hyperlink ref="E10" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
